--- a/下单.xlsx
+++ b/下单.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28623"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F71B7F0C-77D4-4E58-9F5E-0F9B928A3DC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC6D6FB9-68AC-4693-B78F-D1069FCF9011}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="32">
   <si>
     <t>赛区</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -53,6 +53,10 @@
   </si>
   <si>
     <t>胜负</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>lpl</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -72,6 +76,82 @@
 9、EBL 低保
 10、LCKCL KT 大头 DK 小头 KT DK 低保   第三把小头为主
 11、LRN Zeu5 打后四名 双小，其他战队 大头</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>cd</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ratz，los</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;29.5（1.8）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>red,flamengo</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;29.5（1.88）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>只针对第一局</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>lrn</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>sdm,fuego</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>peek,zeu5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>icon,odd</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>大头</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>只针对第一二局</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>al,tt</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>pcs</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>dcg,psg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ig,nip</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以考虑大头</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果人头降低到30以下</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -127,7 +207,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -139,9 +219,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -490,10 +567,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K72"/>
+  <dimension ref="A1:L72"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD19"/>
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -509,12 +586,12 @@
     <col min="9" max="9" width="18" style="3" customWidth="1"/>
     <col min="10" max="10" width="16.08984375" style="3" customWidth="1"/>
     <col min="11" max="11" width="17.453125" style="4" customWidth="1"/>
-    <col min="12" max="12" width="10" style="3" customWidth="1"/>
+    <col min="12" max="12" width="30.08984375" style="3" customWidth="1"/>
     <col min="13" max="13" width="8.7265625" style="3" customWidth="1"/>
     <col min="14" max="16384" width="8.7265625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="1" customFormat="1" ht="13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" s="1" customFormat="1" ht="13" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -534,7 +611,7 @@
         <v>7</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>8</v>
@@ -548,342 +625,454 @@
       <c r="K1" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="J5" s="5"/>
-    </row>
-    <row r="8" spans="1:11" ht="12.5" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="L1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J2" s="3">
+        <v>800</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J3" s="3">
+        <v>800</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="3">
+        <v>1.45</v>
+      </c>
+      <c r="I5" s="3">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B6" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="3">
+        <v>1.4</v>
+      </c>
+      <c r="I6" s="3">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B7" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J7" s="3">
+        <v>800</v>
+      </c>
+      <c r="L7" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="12.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="3">
+        <v>1.18</v>
+      </c>
+      <c r="I10" s="3">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B11" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="J11" s="3">
+        <v>800</v>
+      </c>
+      <c r="L11" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" s="3">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="I13" s="3">
+        <v>8000</v>
+      </c>
+    </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A43" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B43" s="7"/>
-      <c r="C43" s="7"/>
-      <c r="D43" s="7"/>
-      <c r="E43" s="8"/>
-      <c r="F43" s="8"/>
-      <c r="G43" s="8"/>
-      <c r="H43" s="8"/>
-      <c r="I43" s="8"/>
+      <c r="A43" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B43" s="6"/>
+      <c r="C43" s="6"/>
+      <c r="D43" s="6"/>
+      <c r="E43" s="7"/>
+      <c r="F43" s="7"/>
+      <c r="G43" s="7"/>
+      <c r="H43" s="7"/>
+      <c r="I43" s="7"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A44" s="7"/>
-      <c r="B44" s="7"/>
-      <c r="C44" s="7"/>
-      <c r="D44" s="7"/>
-      <c r="E44" s="8"/>
-      <c r="F44" s="8"/>
-      <c r="G44" s="8"/>
-      <c r="H44" s="8"/>
-      <c r="I44" s="8"/>
+      <c r="A44" s="6"/>
+      <c r="B44" s="6"/>
+      <c r="C44" s="6"/>
+      <c r="D44" s="6"/>
+      <c r="E44" s="7"/>
+      <c r="F44" s="7"/>
+      <c r="G44" s="7"/>
+      <c r="H44" s="7"/>
+      <c r="I44" s="7"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A45" s="7"/>
-      <c r="B45" s="7"/>
-      <c r="C45" s="7"/>
-      <c r="D45" s="7"/>
-      <c r="E45" s="8"/>
-      <c r="F45" s="8"/>
-      <c r="G45" s="8"/>
-      <c r="H45" s="8"/>
-      <c r="I45" s="8"/>
+      <c r="A45" s="6"/>
+      <c r="B45" s="6"/>
+      <c r="C45" s="6"/>
+      <c r="D45" s="6"/>
+      <c r="E45" s="7"/>
+      <c r="F45" s="7"/>
+      <c r="G45" s="7"/>
+      <c r="H45" s="7"/>
+      <c r="I45" s="7"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A46" s="7"/>
-      <c r="B46" s="7"/>
-      <c r="C46" s="7"/>
-      <c r="D46" s="7"/>
-      <c r="E46" s="8"/>
-      <c r="F46" s="8"/>
-      <c r="G46" s="8"/>
-      <c r="H46" s="8"/>
-      <c r="I46" s="8"/>
+      <c r="A46" s="6"/>
+      <c r="B46" s="6"/>
+      <c r="C46" s="6"/>
+      <c r="D46" s="6"/>
+      <c r="E46" s="7"/>
+      <c r="F46" s="7"/>
+      <c r="G46" s="7"/>
+      <c r="H46" s="7"/>
+      <c r="I46" s="7"/>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A47" s="7"/>
-      <c r="B47" s="7"/>
-      <c r="C47" s="7"/>
-      <c r="D47" s="7"/>
-      <c r="E47" s="8"/>
-      <c r="F47" s="8"/>
-      <c r="G47" s="8"/>
-      <c r="H47" s="8"/>
-      <c r="I47" s="8"/>
+      <c r="A47" s="6"/>
+      <c r="B47" s="6"/>
+      <c r="C47" s="6"/>
+      <c r="D47" s="6"/>
+      <c r="E47" s="7"/>
+      <c r="F47" s="7"/>
+      <c r="G47" s="7"/>
+      <c r="H47" s="7"/>
+      <c r="I47" s="7"/>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A48" s="7"/>
-      <c r="B48" s="7"/>
-      <c r="C48" s="7"/>
-      <c r="D48" s="7"/>
-      <c r="E48" s="8"/>
-      <c r="F48" s="8"/>
-      <c r="G48" s="8"/>
-      <c r="H48" s="8"/>
-      <c r="I48" s="8"/>
+      <c r="A48" s="6"/>
+      <c r="B48" s="6"/>
+      <c r="C48" s="6"/>
+      <c r="D48" s="6"/>
+      <c r="E48" s="7"/>
+      <c r="F48" s="7"/>
+      <c r="G48" s="7"/>
+      <c r="H48" s="7"/>
+      <c r="I48" s="7"/>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A49" s="7"/>
-      <c r="B49" s="7"/>
-      <c r="C49" s="7"/>
-      <c r="D49" s="7"/>
-      <c r="E49" s="8"/>
-      <c r="F49" s="8"/>
-      <c r="G49" s="8"/>
-      <c r="H49" s="8"/>
-      <c r="I49" s="8"/>
+      <c r="A49" s="6"/>
+      <c r="B49" s="6"/>
+      <c r="C49" s="6"/>
+      <c r="D49" s="6"/>
+      <c r="E49" s="7"/>
+      <c r="F49" s="7"/>
+      <c r="G49" s="7"/>
+      <c r="H49" s="7"/>
+      <c r="I49" s="7"/>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A50" s="7"/>
-      <c r="B50" s="7"/>
-      <c r="C50" s="7"/>
-      <c r="D50" s="7"/>
-      <c r="E50" s="8"/>
-      <c r="F50" s="8"/>
-      <c r="G50" s="8"/>
-      <c r="H50" s="8"/>
-      <c r="I50" s="8"/>
+      <c r="A50" s="6"/>
+      <c r="B50" s="6"/>
+      <c r="C50" s="6"/>
+      <c r="D50" s="6"/>
+      <c r="E50" s="7"/>
+      <c r="F50" s="7"/>
+      <c r="G50" s="7"/>
+      <c r="H50" s="7"/>
+      <c r="I50" s="7"/>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A51" s="7"/>
-      <c r="B51" s="7"/>
-      <c r="C51" s="7"/>
-      <c r="D51" s="7"/>
-      <c r="E51" s="8"/>
-      <c r="F51" s="8"/>
-      <c r="G51" s="8"/>
-      <c r="H51" s="8"/>
-      <c r="I51" s="8"/>
+      <c r="A51" s="6"/>
+      <c r="B51" s="6"/>
+      <c r="C51" s="6"/>
+      <c r="D51" s="6"/>
+      <c r="E51" s="7"/>
+      <c r="F51" s="7"/>
+      <c r="G51" s="7"/>
+      <c r="H51" s="7"/>
+      <c r="I51" s="7"/>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A52" s="7"/>
-      <c r="B52" s="7"/>
-      <c r="C52" s="7"/>
-      <c r="D52" s="7"/>
-      <c r="E52" s="8"/>
-      <c r="F52" s="8"/>
-      <c r="G52" s="8"/>
-      <c r="H52" s="8"/>
-      <c r="I52" s="8"/>
+      <c r="A52" s="6"/>
+      <c r="B52" s="6"/>
+      <c r="C52" s="6"/>
+      <c r="D52" s="6"/>
+      <c r="E52" s="7"/>
+      <c r="F52" s="7"/>
+      <c r="G52" s="7"/>
+      <c r="H52" s="7"/>
+      <c r="I52" s="7"/>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A53" s="8"/>
-      <c r="B53" s="8"/>
-      <c r="C53" s="8"/>
-      <c r="D53" s="8"/>
-      <c r="E53" s="8"/>
-      <c r="F53" s="8"/>
-      <c r="G53" s="8"/>
-      <c r="H53" s="8"/>
-      <c r="I53" s="8"/>
+      <c r="A53" s="7"/>
+      <c r="B53" s="7"/>
+      <c r="C53" s="7"/>
+      <c r="D53" s="7"/>
+      <c r="E53" s="7"/>
+      <c r="F53" s="7"/>
+      <c r="G53" s="7"/>
+      <c r="H53" s="7"/>
+      <c r="I53" s="7"/>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A54" s="8"/>
-      <c r="B54" s="8"/>
-      <c r="C54" s="8"/>
-      <c r="D54" s="8"/>
-      <c r="E54" s="8"/>
-      <c r="F54" s="8"/>
-      <c r="G54" s="8"/>
-      <c r="H54" s="8"/>
-      <c r="I54" s="8"/>
+      <c r="A54" s="7"/>
+      <c r="B54" s="7"/>
+      <c r="C54" s="7"/>
+      <c r="D54" s="7"/>
+      <c r="E54" s="7"/>
+      <c r="F54" s="7"/>
+      <c r="G54" s="7"/>
+      <c r="H54" s="7"/>
+      <c r="I54" s="7"/>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A55" s="8"/>
-      <c r="B55" s="8"/>
-      <c r="C55" s="8"/>
-      <c r="D55" s="8"/>
-      <c r="E55" s="8"/>
-      <c r="F55" s="8"/>
-      <c r="G55" s="8"/>
-      <c r="H55" s="8"/>
-      <c r="I55" s="8"/>
+      <c r="A55" s="7"/>
+      <c r="B55" s="7"/>
+      <c r="C55" s="7"/>
+      <c r="D55" s="7"/>
+      <c r="E55" s="7"/>
+      <c r="F55" s="7"/>
+      <c r="G55" s="7"/>
+      <c r="H55" s="7"/>
+      <c r="I55" s="7"/>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A56" s="8"/>
-      <c r="B56" s="8"/>
-      <c r="C56" s="8"/>
-      <c r="D56" s="8"/>
-      <c r="E56" s="8"/>
-      <c r="F56" s="8"/>
-      <c r="G56" s="8"/>
-      <c r="H56" s="8"/>
-      <c r="I56" s="8"/>
+      <c r="A56" s="7"/>
+      <c r="B56" s="7"/>
+      <c r="C56" s="7"/>
+      <c r="D56" s="7"/>
+      <c r="E56" s="7"/>
+      <c r="F56" s="7"/>
+      <c r="G56" s="7"/>
+      <c r="H56" s="7"/>
+      <c r="I56" s="7"/>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A57" s="8"/>
-      <c r="B57" s="8"/>
-      <c r="C57" s="8"/>
-      <c r="D57" s="8"/>
-      <c r="E57" s="8"/>
-      <c r="F57" s="8"/>
-      <c r="G57" s="8"/>
-      <c r="H57" s="8"/>
-      <c r="I57" s="8"/>
+      <c r="A57" s="7"/>
+      <c r="B57" s="7"/>
+      <c r="C57" s="7"/>
+      <c r="D57" s="7"/>
+      <c r="E57" s="7"/>
+      <c r="F57" s="7"/>
+      <c r="G57" s="7"/>
+      <c r="H57" s="7"/>
+      <c r="I57" s="7"/>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A58" s="8"/>
-      <c r="B58" s="8"/>
-      <c r="C58" s="8"/>
-      <c r="D58" s="8"/>
-      <c r="E58" s="8"/>
-      <c r="F58" s="8"/>
-      <c r="G58" s="8"/>
-      <c r="H58" s="8"/>
-      <c r="I58" s="8"/>
+      <c r="A58" s="7"/>
+      <c r="B58" s="7"/>
+      <c r="C58" s="7"/>
+      <c r="D58" s="7"/>
+      <c r="E58" s="7"/>
+      <c r="F58" s="7"/>
+      <c r="G58" s="7"/>
+      <c r="H58" s="7"/>
+      <c r="I58" s="7"/>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A59" s="8"/>
-      <c r="B59" s="8"/>
-      <c r="C59" s="8"/>
-      <c r="D59" s="8"/>
-      <c r="E59" s="8"/>
-      <c r="F59" s="8"/>
-      <c r="G59" s="8"/>
-      <c r="H59" s="8"/>
-      <c r="I59" s="8"/>
+      <c r="A59" s="7"/>
+      <c r="B59" s="7"/>
+      <c r="C59" s="7"/>
+      <c r="D59" s="7"/>
+      <c r="E59" s="7"/>
+      <c r="F59" s="7"/>
+      <c r="G59" s="7"/>
+      <c r="H59" s="7"/>
+      <c r="I59" s="7"/>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A60" s="8"/>
-      <c r="B60" s="8"/>
-      <c r="C60" s="8"/>
-      <c r="D60" s="8"/>
-      <c r="E60" s="8"/>
-      <c r="F60" s="8"/>
-      <c r="G60" s="8"/>
-      <c r="H60" s="8"/>
-      <c r="I60" s="8"/>
+      <c r="A60" s="7"/>
+      <c r="B60" s="7"/>
+      <c r="C60" s="7"/>
+      <c r="D60" s="7"/>
+      <c r="E60" s="7"/>
+      <c r="F60" s="7"/>
+      <c r="G60" s="7"/>
+      <c r="H60" s="7"/>
+      <c r="I60" s="7"/>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A61" s="8"/>
-      <c r="B61" s="8"/>
-      <c r="C61" s="8"/>
-      <c r="D61" s="8"/>
-      <c r="E61" s="8"/>
-      <c r="F61" s="8"/>
-      <c r="G61" s="8"/>
-      <c r="H61" s="8"/>
-      <c r="I61" s="8"/>
+      <c r="A61" s="7"/>
+      <c r="B61" s="7"/>
+      <c r="C61" s="7"/>
+      <c r="D61" s="7"/>
+      <c r="E61" s="7"/>
+      <c r="F61" s="7"/>
+      <c r="G61" s="7"/>
+      <c r="H61" s="7"/>
+      <c r="I61" s="7"/>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A62" s="8"/>
-      <c r="B62" s="8"/>
-      <c r="C62" s="8"/>
-      <c r="D62" s="8"/>
-      <c r="E62" s="8"/>
-      <c r="F62" s="8"/>
-      <c r="G62" s="8"/>
-      <c r="H62" s="8"/>
-      <c r="I62" s="8"/>
+      <c r="A62" s="7"/>
+      <c r="B62" s="7"/>
+      <c r="C62" s="7"/>
+      <c r="D62" s="7"/>
+      <c r="E62" s="7"/>
+      <c r="F62" s="7"/>
+      <c r="G62" s="7"/>
+      <c r="H62" s="7"/>
+      <c r="I62" s="7"/>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A63" s="8"/>
-      <c r="B63" s="8"/>
-      <c r="C63" s="8"/>
-      <c r="D63" s="8"/>
-      <c r="E63" s="8"/>
-      <c r="F63" s="8"/>
-      <c r="G63" s="8"/>
-      <c r="H63" s="8"/>
-      <c r="I63" s="8"/>
+      <c r="A63" s="7"/>
+      <c r="B63" s="7"/>
+      <c r="C63" s="7"/>
+      <c r="D63" s="7"/>
+      <c r="E63" s="7"/>
+      <c r="F63" s="7"/>
+      <c r="G63" s="7"/>
+      <c r="H63" s="7"/>
+      <c r="I63" s="7"/>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A64" s="8"/>
-      <c r="B64" s="8"/>
-      <c r="C64" s="8"/>
-      <c r="D64" s="8"/>
-      <c r="E64" s="8"/>
-      <c r="F64" s="8"/>
-      <c r="G64" s="8"/>
-      <c r="H64" s="8"/>
-      <c r="I64" s="8"/>
+      <c r="A64" s="7"/>
+      <c r="B64" s="7"/>
+      <c r="C64" s="7"/>
+      <c r="D64" s="7"/>
+      <c r="E64" s="7"/>
+      <c r="F64" s="7"/>
+      <c r="G64" s="7"/>
+      <c r="H64" s="7"/>
+      <c r="I64" s="7"/>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A65" s="8"/>
-      <c r="B65" s="8"/>
-      <c r="C65" s="8"/>
-      <c r="D65" s="8"/>
-      <c r="E65" s="8"/>
-      <c r="F65" s="8"/>
-      <c r="G65" s="8"/>
-      <c r="H65" s="8"/>
-      <c r="I65" s="8"/>
+      <c r="A65" s="7"/>
+      <c r="B65" s="7"/>
+      <c r="C65" s="7"/>
+      <c r="D65" s="7"/>
+      <c r="E65" s="7"/>
+      <c r="F65" s="7"/>
+      <c r="G65" s="7"/>
+      <c r="H65" s="7"/>
+      <c r="I65" s="7"/>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A66" s="8"/>
-      <c r="B66" s="8"/>
-      <c r="C66" s="8"/>
-      <c r="D66" s="8"/>
-      <c r="E66" s="8"/>
-      <c r="F66" s="8"/>
-      <c r="G66" s="8"/>
-      <c r="H66" s="8"/>
-      <c r="I66" s="8"/>
+      <c r="A66" s="7"/>
+      <c r="B66" s="7"/>
+      <c r="C66" s="7"/>
+      <c r="D66" s="7"/>
+      <c r="E66" s="7"/>
+      <c r="F66" s="7"/>
+      <c r="G66" s="7"/>
+      <c r="H66" s="7"/>
+      <c r="I66" s="7"/>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A67" s="8"/>
-      <c r="B67" s="8"/>
-      <c r="C67" s="8"/>
-      <c r="D67" s="8"/>
-      <c r="E67" s="8"/>
-      <c r="F67" s="8"/>
-      <c r="G67" s="8"/>
-      <c r="H67" s="8"/>
-      <c r="I67" s="8"/>
+      <c r="A67" s="7"/>
+      <c r="B67" s="7"/>
+      <c r="C67" s="7"/>
+      <c r="D67" s="7"/>
+      <c r="E67" s="7"/>
+      <c r="F67" s="7"/>
+      <c r="G67" s="7"/>
+      <c r="H67" s="7"/>
+      <c r="I67" s="7"/>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A68" s="8"/>
-      <c r="B68" s="8"/>
-      <c r="C68" s="8"/>
-      <c r="D68" s="8"/>
-      <c r="E68" s="8"/>
-      <c r="F68" s="8"/>
-      <c r="G68" s="8"/>
-      <c r="H68" s="8"/>
-      <c r="I68" s="8"/>
+      <c r="A68" s="7"/>
+      <c r="B68" s="7"/>
+      <c r="C68" s="7"/>
+      <c r="D68" s="7"/>
+      <c r="E68" s="7"/>
+      <c r="F68" s="7"/>
+      <c r="G68" s="7"/>
+      <c r="H68" s="7"/>
+      <c r="I68" s="7"/>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A69" s="8"/>
-      <c r="B69" s="8"/>
-      <c r="C69" s="8"/>
-      <c r="D69" s="8"/>
-      <c r="E69" s="8"/>
-      <c r="F69" s="8"/>
-      <c r="G69" s="8"/>
-      <c r="H69" s="8"/>
-      <c r="I69" s="8"/>
+      <c r="A69" s="7"/>
+      <c r="B69" s="7"/>
+      <c r="C69" s="7"/>
+      <c r="D69" s="7"/>
+      <c r="E69" s="7"/>
+      <c r="F69" s="7"/>
+      <c r="G69" s="7"/>
+      <c r="H69" s="7"/>
+      <c r="I69" s="7"/>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A70" s="8"/>
-      <c r="B70" s="8"/>
-      <c r="C70" s="8"/>
-      <c r="D70" s="8"/>
-      <c r="E70" s="8"/>
-      <c r="F70" s="8"/>
-      <c r="G70" s="8"/>
-      <c r="H70" s="8"/>
-      <c r="I70" s="8"/>
+      <c r="A70" s="7"/>
+      <c r="B70" s="7"/>
+      <c r="C70" s="7"/>
+      <c r="D70" s="7"/>
+      <c r="E70" s="7"/>
+      <c r="F70" s="7"/>
+      <c r="G70" s="7"/>
+      <c r="H70" s="7"/>
+      <c r="I70" s="7"/>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A71" s="8"/>
-      <c r="B71" s="8"/>
-      <c r="C71" s="8"/>
-      <c r="D71" s="8"/>
-      <c r="E71" s="8"/>
-      <c r="F71" s="8"/>
-      <c r="G71" s="8"/>
-      <c r="H71" s="8"/>
-      <c r="I71" s="8"/>
+      <c r="A71" s="7"/>
+      <c r="B71" s="7"/>
+      <c r="C71" s="7"/>
+      <c r="D71" s="7"/>
+      <c r="E71" s="7"/>
+      <c r="F71" s="7"/>
+      <c r="G71" s="7"/>
+      <c r="H71" s="7"/>
+      <c r="I71" s="7"/>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A72" s="8"/>
-      <c r="B72" s="8"/>
-      <c r="C72" s="8"/>
-      <c r="D72" s="8"/>
-      <c r="E72" s="8"/>
-      <c r="F72" s="8"/>
-      <c r="G72" s="8"/>
-      <c r="H72" s="8"/>
-      <c r="I72" s="8"/>
+      <c r="A72" s="7"/>
+      <c r="B72" s="7"/>
+      <c r="C72" s="7"/>
+      <c r="D72" s="7"/>
+      <c r="E72" s="7"/>
+      <c r="F72" s="7"/>
+      <c r="G72" s="7"/>
+      <c r="H72" s="7"/>
+      <c r="I72" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/下单.xlsx
+++ b/下单.xlsx
@@ -3,19 +3,30 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28623"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC6D6FB9-68AC-4693-B78F-D1069FCF9011}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E6B7DC3-F759-4E6A-A6ED-99A14A88D080}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2025LCK春季常规赛" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="62">
   <si>
     <t>赛区</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -64,7 +75,128 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>大头大表偏实力接近，小头小表 给 有实力差距
+    <t>cd</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;29.5（1.8）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;29.5（1.88）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>只针对第一二局</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>al,tt</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>pcs</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>dcg,psg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ig,nip</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以考虑大头</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果人头降低到30以下</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>hm</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ul</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>docis,orbit,</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;35.5(1.88)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&gt;30(19)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>600</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>b2g</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>小头</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>大表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>gll</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>wlg,hze</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&gt;30.5(1.88)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>action,goal,</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&gt;32.5(1.88)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tp,ti</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>lckcl</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>t1,drx</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>只针对第三局</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ns,bnk</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>大头大表偏实力接近，小头小表 给 有实力差距
 1、lck hle gen dk vs四大天王低保  1类容易大头 ？ 23类容易大头 ？ 3类 容易小头 人头26 
 2、tes jdg blg al fpx wbg nip tt ig 低保  三类之间大表居多  AL NIP ig 容易大头 人头小于30下  第二把容易偏大头
 3、lec  第一把小头为主
@@ -75,83 +207,126 @@
 8、CD第一把小头，高楼大表
 9、EBL 低保
 10、LCKCL KT 大头 DK 小头 KT DK 低保   第三把小头为主
-11、LRN Zeu5 打后四名 双小，其他战队 大头</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>cd</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ratz，los</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>备注</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;29.5（1.8）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>red,flamengo</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;29.5（1.88）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>只针对第一局</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>lrn</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>sdm,fuego</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>peek,zeu5</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>icon,odd</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>大头</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>只针对第一二局</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>al,tt</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>pcs</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>dcg,psg</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ig,nip</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>可以考虑大头</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>如果人头降低到30以下</t>
+11、LRN Zeu5, INFINITY 打后四名 低保，后四名之间双大
+12、UL 除了 Fajnie Mie</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>ć</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Sk</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>ł</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ad（大头 大于 32），其他战队小头， 其他战队 大表 大30
+13、prm 第一把小头大表为主 第二把大头为主，第三把 小表为主</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>prm</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>eintra,big</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;29.5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;32</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">小头大表 第二把大头 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>dd,uol</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>eintra,team</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>小头大表 第二把大头 ,第三把小表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>night，glore</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;31.5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>es</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>zen,jor</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>myth,Mcom</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&gt;31</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ste,cor</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&gt;30</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>人头针对第一局，时间针对一二局</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>rise,kabu</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&gt;29</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -159,7 +334,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -180,6 +355,13 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+      <charset val="238"/>
     </font>
   </fonts>
   <fills count="3">
@@ -567,10 +749,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L72"/>
+  <dimension ref="A1:L65"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K33" sqref="K33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -626,126 +808,402 @@
         <v>5</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="J2" s="3">
-        <v>800</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>19</v>
-      </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>10</v>
+      </c>
       <c r="B3" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="C3" s="3">
+        <v>1.18</v>
+      </c>
+      <c r="I3" s="3">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B4" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="J4" s="3">
+        <v>800</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="J3" s="3">
+      <c r="B6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="3">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="I6" s="3">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C9" s="3">
+        <v>1.2</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I9" s="3">
+        <v>6000</v>
+      </c>
+      <c r="J9" s="3">
+        <v>600</v>
+      </c>
+      <c r="K9" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="J12" s="3">
         <v>800</v>
       </c>
-      <c r="L3" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" s="3">
-        <v>1.45</v>
-      </c>
-      <c r="I5" s="3">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B6" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" s="3">
-        <v>1.4</v>
-      </c>
-      <c r="I6" s="3">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B7" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="J7" s="3">
+      <c r="K12" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="L12" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B13" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="J13" s="3">
         <v>800</v>
       </c>
-      <c r="L7" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" ht="12.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10" s="3">
-        <v>1.18</v>
-      </c>
-      <c r="I10" s="3">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B11" s="3" t="s">
+      <c r="K13" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="L13" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="J16" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B17" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="J17" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B18" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C18" s="3">
+        <v>1.3</v>
+      </c>
+      <c r="I18" s="3">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="J20" s="3">
+        <v>600</v>
+      </c>
+      <c r="K20" s="3">
+        <v>600</v>
+      </c>
+      <c r="L20" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B21" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="J21" s="3">
+        <v>600</v>
+      </c>
+      <c r="L21" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E24" s="3">
+        <v>27.5</v>
+      </c>
+      <c r="H24" s="3">
         <v>29</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="J24" s="3">
+        <v>600</v>
+      </c>
+      <c r="K24" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="L24" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B25" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E25" s="3">
+        <v>28.5</v>
+      </c>
+      <c r="H25" s="3">
         <v>30</v>
       </c>
-      <c r="J11" s="3">
+      <c r="J25" s="3">
+        <v>600</v>
+      </c>
+      <c r="K25" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="L25" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B26" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E26" s="3">
+        <v>29.5</v>
+      </c>
+      <c r="H26" s="3">
+        <v>32</v>
+      </c>
+      <c r="J26" s="3">
+        <v>600</v>
+      </c>
+      <c r="K26" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="L26" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A29" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C29" s="3">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="I29" s="3">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B30" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="G30" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="J30" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A32" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J32" s="3">
         <v>800</v>
       </c>
-      <c r="L11" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B13" s="3" t="s">
+      <c r="K32" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C13" s="3">
-        <v>1.1200000000000001</v>
-      </c>
-      <c r="I13" s="3">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A43" s="5" t="s">
-        <v>12</v>
-      </c>
+      <c r="L32" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B33" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G33" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="J33" s="3">
+        <v>800</v>
+      </c>
+      <c r="K33" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A36" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B36" s="6"/>
+      <c r="C36" s="6"/>
+      <c r="D36" s="6"/>
+      <c r="E36" s="7"/>
+      <c r="F36" s="7"/>
+      <c r="G36" s="7"/>
+      <c r="H36" s="7"/>
+      <c r="I36" s="7"/>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A37" s="6"/>
+      <c r="B37" s="6"/>
+      <c r="C37" s="6"/>
+      <c r="D37" s="6"/>
+      <c r="E37" s="7"/>
+      <c r="F37" s="7"/>
+      <c r="G37" s="7"/>
+      <c r="H37" s="7"/>
+      <c r="I37" s="7"/>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A38" s="6"/>
+      <c r="B38" s="6"/>
+      <c r="C38" s="6"/>
+      <c r="D38" s="6"/>
+      <c r="E38" s="7"/>
+      <c r="F38" s="7"/>
+      <c r="G38" s="7"/>
+      <c r="H38" s="7"/>
+      <c r="I38" s="7"/>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A39" s="6"/>
+      <c r="B39" s="6"/>
+      <c r="C39" s="6"/>
+      <c r="D39" s="6"/>
+      <c r="E39" s="7"/>
+      <c r="F39" s="7"/>
+      <c r="G39" s="7"/>
+      <c r="H39" s="7"/>
+      <c r="I39" s="7"/>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A40" s="6"/>
+      <c r="B40" s="6"/>
+      <c r="C40" s="6"/>
+      <c r="D40" s="6"/>
+      <c r="E40" s="7"/>
+      <c r="F40" s="7"/>
+      <c r="G40" s="7"/>
+      <c r="H40" s="7"/>
+      <c r="I40" s="7"/>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A41" s="6"/>
+      <c r="B41" s="6"/>
+      <c r="C41" s="6"/>
+      <c r="D41" s="6"/>
+      <c r="E41" s="7"/>
+      <c r="F41" s="7"/>
+      <c r="G41" s="7"/>
+      <c r="H41" s="7"/>
+      <c r="I41" s="7"/>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A42" s="6"/>
+      <c r="B42" s="6"/>
+      <c r="C42" s="6"/>
+      <c r="D42" s="6"/>
+      <c r="E42" s="7"/>
+      <c r="F42" s="7"/>
+      <c r="G42" s="7"/>
+      <c r="H42" s="7"/>
+      <c r="I42" s="7"/>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A43" s="6"/>
       <c r="B43" s="6"/>
       <c r="C43" s="6"/>
       <c r="D43" s="6"/>
@@ -755,7 +1213,7 @@
       <c r="H43" s="7"/>
       <c r="I43" s="7"/>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="6"/>
       <c r="B44" s="6"/>
       <c r="C44" s="6"/>
@@ -766,7 +1224,7 @@
       <c r="H44" s="7"/>
       <c r="I44" s="7"/>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="6"/>
       <c r="B45" s="6"/>
       <c r="C45" s="6"/>
@@ -777,33 +1235,33 @@
       <c r="H45" s="7"/>
       <c r="I45" s="7"/>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A46" s="6"/>
-      <c r="B46" s="6"/>
-      <c r="C46" s="6"/>
-      <c r="D46" s="6"/>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A46" s="7"/>
+      <c r="B46" s="7"/>
+      <c r="C46" s="7"/>
+      <c r="D46" s="7"/>
       <c r="E46" s="7"/>
       <c r="F46" s="7"/>
       <c r="G46" s="7"/>
       <c r="H46" s="7"/>
       <c r="I46" s="7"/>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A47" s="6"/>
-      <c r="B47" s="6"/>
-      <c r="C47" s="6"/>
-      <c r="D47" s="6"/>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A47" s="7"/>
+      <c r="B47" s="7"/>
+      <c r="C47" s="7"/>
+      <c r="D47" s="7"/>
       <c r="E47" s="7"/>
       <c r="F47" s="7"/>
       <c r="G47" s="7"/>
       <c r="H47" s="7"/>
       <c r="I47" s="7"/>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A48" s="6"/>
-      <c r="B48" s="6"/>
-      <c r="C48" s="6"/>
-      <c r="D48" s="6"/>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A48" s="7"/>
+      <c r="B48" s="7"/>
+      <c r="C48" s="7"/>
+      <c r="D48" s="7"/>
       <c r="E48" s="7"/>
       <c r="F48" s="7"/>
       <c r="G48" s="7"/>
@@ -811,10 +1269,10 @@
       <c r="I48" s="7"/>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A49" s="6"/>
-      <c r="B49" s="6"/>
-      <c r="C49" s="6"/>
-      <c r="D49" s="6"/>
+      <c r="A49" s="7"/>
+      <c r="B49" s="7"/>
+      <c r="C49" s="7"/>
+      <c r="D49" s="7"/>
       <c r="E49" s="7"/>
       <c r="F49" s="7"/>
       <c r="G49" s="7"/>
@@ -822,10 +1280,10 @@
       <c r="I49" s="7"/>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A50" s="6"/>
-      <c r="B50" s="6"/>
-      <c r="C50" s="6"/>
-      <c r="D50" s="6"/>
+      <c r="A50" s="7"/>
+      <c r="B50" s="7"/>
+      <c r="C50" s="7"/>
+      <c r="D50" s="7"/>
       <c r="E50" s="7"/>
       <c r="F50" s="7"/>
       <c r="G50" s="7"/>
@@ -833,10 +1291,10 @@
       <c r="I50" s="7"/>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A51" s="6"/>
-      <c r="B51" s="6"/>
-      <c r="C51" s="6"/>
-      <c r="D51" s="6"/>
+      <c r="A51" s="7"/>
+      <c r="B51" s="7"/>
+      <c r="C51" s="7"/>
+      <c r="D51" s="7"/>
       <c r="E51" s="7"/>
       <c r="F51" s="7"/>
       <c r="G51" s="7"/>
@@ -844,10 +1302,10 @@
       <c r="I51" s="7"/>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A52" s="6"/>
-      <c r="B52" s="6"/>
-      <c r="C52" s="6"/>
-      <c r="D52" s="6"/>
+      <c r="A52" s="7"/>
+      <c r="B52" s="7"/>
+      <c r="C52" s="7"/>
+      <c r="D52" s="7"/>
       <c r="E52" s="7"/>
       <c r="F52" s="7"/>
       <c r="G52" s="7"/>
@@ -997,86 +1455,9 @@
       <c r="H65" s="7"/>
       <c r="I65" s="7"/>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A66" s="7"/>
-      <c r="B66" s="7"/>
-      <c r="C66" s="7"/>
-      <c r="D66" s="7"/>
-      <c r="E66" s="7"/>
-      <c r="F66" s="7"/>
-      <c r="G66" s="7"/>
-      <c r="H66" s="7"/>
-      <c r="I66" s="7"/>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A67" s="7"/>
-      <c r="B67" s="7"/>
-      <c r="C67" s="7"/>
-      <c r="D67" s="7"/>
-      <c r="E67" s="7"/>
-      <c r="F67" s="7"/>
-      <c r="G67" s="7"/>
-      <c r="H67" s="7"/>
-      <c r="I67" s="7"/>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A68" s="7"/>
-      <c r="B68" s="7"/>
-      <c r="C68" s="7"/>
-      <c r="D68" s="7"/>
-      <c r="E68" s="7"/>
-      <c r="F68" s="7"/>
-      <c r="G68" s="7"/>
-      <c r="H68" s="7"/>
-      <c r="I68" s="7"/>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A69" s="7"/>
-      <c r="B69" s="7"/>
-      <c r="C69" s="7"/>
-      <c r="D69" s="7"/>
-      <c r="E69" s="7"/>
-      <c r="F69" s="7"/>
-      <c r="G69" s="7"/>
-      <c r="H69" s="7"/>
-      <c r="I69" s="7"/>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A70" s="7"/>
-      <c r="B70" s="7"/>
-      <c r="C70" s="7"/>
-      <c r="D70" s="7"/>
-      <c r="E70" s="7"/>
-      <c r="F70" s="7"/>
-      <c r="G70" s="7"/>
-      <c r="H70" s="7"/>
-      <c r="I70" s="7"/>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A71" s="7"/>
-      <c r="B71" s="7"/>
-      <c r="C71" s="7"/>
-      <c r="D71" s="7"/>
-      <c r="E71" s="7"/>
-      <c r="F71" s="7"/>
-      <c r="G71" s="7"/>
-      <c r="H71" s="7"/>
-      <c r="I71" s="7"/>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A72" s="7"/>
-      <c r="B72" s="7"/>
-      <c r="C72" s="7"/>
-      <c r="D72" s="7"/>
-      <c r="E72" s="7"/>
-      <c r="F72" s="7"/>
-      <c r="G72" s="7"/>
-      <c r="H72" s="7"/>
-      <c r="I72" s="7"/>
-    </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A43:I72"/>
+    <mergeCell ref="A36:I65"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/下单.xlsx
+++ b/下单.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28623"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E6B7DC3-F759-4E6A-A6ED-99A14A88D080}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{258AE438-D2D9-4DC8-AD79-5E7AB5B79D35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="63">
   <si>
     <t>赛区</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -192,6 +192,82 @@
   </si>
   <si>
     <t>ns,bnk</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>prm</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>eintra,big</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;29.5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;32</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">小头大表 第二把大头 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>dd,uol</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>eintra,team</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>小头大表 第二把大头 ,第三把小表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>night，glore</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;31.5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>es</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>zen,jor</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>myth,Mcom</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&gt;31</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ste,cor</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&gt;30</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>人头针对第一局，时间针对一二局</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>rise,kabu</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&gt;29</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -249,84 +325,13 @@
         <scheme val="minor"/>
       </rPr>
       <t>ad（大头 大于 32），其他战队小头， 其他战队 大表 大30
-13、prm 第一把小头大表为主 第二把大头为主，第三把 小表为主</t>
+13、prm 第一把小头大表为主 第二把大头为主，第三把 小表为主
+14、pcs 一二局大头为主 特别第二局</t>
     </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>prm</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>eintra,big</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;29.5</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;32</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">小头大表 第二把大头 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>dd,uol</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>eintra,team</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>小头大表 第二把大头 ,第三把小表</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>night，glore</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;31.5</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>es</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>zen,jor</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>myth,Mcom</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>&gt;31</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ste,cor</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>&gt;30</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>人头针对第一局，时间针对一二局</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>rise,kabu</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>&gt;29</t>
+    <t>&gt;31.5</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -751,8 +756,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K33" sqref="K33"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J30" sqref="J30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -858,16 +863,16 @@
         <v>23</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C9" s="3">
         <v>1.2</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I9" s="3">
         <v>6000</v>
@@ -966,10 +971,10 @@
         <v>39</v>
       </c>
       <c r="E20" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="H20" s="3" t="s">
         <v>45</v>
-      </c>
-      <c r="H20" s="3" t="s">
-        <v>46</v>
       </c>
       <c r="J20" s="3">
         <v>600</v>
@@ -986,7 +991,7 @@
         <v>41</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J21" s="3">
         <v>600</v>
@@ -997,10 +1002,10 @@
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B24" s="3" t="s">
         <v>43</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>44</v>
       </c>
       <c r="E24" s="3">
         <v>27.5</v>
@@ -1015,12 +1020,12 @@
         <v>28</v>
       </c>
       <c r="L24" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B25" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E25" s="3">
         <v>28.5</v>
@@ -1035,12 +1040,12 @@
         <v>28</v>
       </c>
       <c r="L25" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B26" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E26" s="3">
         <v>29.5</v>
@@ -1055,15 +1060,15 @@
         <v>28</v>
       </c>
       <c r="L26" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B29" s="3" t="s">
         <v>53</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>54</v>
       </c>
       <c r="C29" s="3">
         <v>1.0900000000000001</v>
@@ -1074,13 +1079,19 @@
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B30" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="G30" s="3" t="s">
         <v>55</v>
-      </c>
-      <c r="G30" s="3" t="s">
-        <v>56</v>
       </c>
       <c r="J30" s="3">
         <v>600</v>
+      </c>
+      <c r="K30" s="4" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
@@ -1088,13 +1099,13 @@
         <v>12</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E32" s="3" t="s">
         <v>14</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J32" s="3">
         <v>800</v>
@@ -1103,18 +1114,18 @@
         <v>28</v>
       </c>
       <c r="L32" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B33" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E33" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J33" s="3">
         <v>800</v>
@@ -1125,7 +1136,7 @@
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
-        <v>42</v>
+        <v>61</v>
       </c>
       <c r="B36" s="6"/>
       <c r="C36" s="6"/>

--- a/下单.xlsx
+++ b/下单.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28623"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{258AE438-D2D9-4DC8-AD79-5E7AB5B79D35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18EEF5C7-BB98-4DFB-B4D9-5751B4038DDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="52">
   <si>
     <t>赛区</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -67,90 +67,26 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>lpl</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>时间（ky)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>cd</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>备注</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>&lt;29.5（1.8）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;29.5（1.88）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>只针对第一二局</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>al,tt</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>pcs</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>dcg,psg</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ig,nip</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>可以考虑大头</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>如果人头降低到30以下</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>hm</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>ul</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>docis,orbit,</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;35.5(1.88)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>&gt;30(19)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>600</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>b2g</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>小头</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>大表</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -159,115 +95,11 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>wlg,hze</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>&gt;30.5(1.88)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>action,goal,</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>&gt;32.5(1.88)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>tp,ti</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>lckcl</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>t1,drx</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>只针对第三局</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ns,bnk</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>prm</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>eintra,big</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;29.5</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;32</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">小头大表 第二把大头 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>dd,uol</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>eintra,team</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>小头大表 第二把大头 ,第三把小表</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>night，glore</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;31.5</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>es</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>zen,jor</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>myth,Mcom</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>&gt;31</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ste,cor</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>&gt;30</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>人头针对第一局，时间针对一二局</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>rise,kabu</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>&gt;29</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -331,7 +163,131 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>&gt;31.5</t>
+    <t>gsm,goal</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&gt;31,5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>wlg,tp</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>hze</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&gt;30.5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>act,tp</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>lodis,z10</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>只针对第二局</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>大头</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>fm,forsaken</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>nlc</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>los,dmg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>lit</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>eko,zena</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&gt;29.5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>axolot,anc</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&gt;28.5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>al</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>fox,fog</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&gt;34.5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>geek,gng</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>baam,nig</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&gt;32</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ross,ewie</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>500</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一把大表，第二把大头</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kaufman,au</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>nacl</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>con,dark</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一把大表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>blue,ccg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>第三把小头</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -754,10 +710,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L65"/>
+  <dimension ref="A1:L57"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J30" sqref="J30"/>
+      <selection activeCell="L25" sqref="L25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -798,7 +754,7 @@
         <v>7</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>8</v>
@@ -813,331 +769,339 @@
         <v>5</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="C3" s="3">
-        <v>1.18</v>
+        <v>1.2</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>28</v>
       </c>
       <c r="I3" s="3">
-        <v>5000</v>
+        <v>8000</v>
+      </c>
+      <c r="J3" s="3">
+        <v>500</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B4" s="3" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>21</v>
+        <v>28</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>15</v>
       </c>
       <c r="J4" s="3">
         <v>800</v>
       </c>
       <c r="L4" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="J7" s="3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B8" s="3" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" s="3">
-        <v>1.1200000000000001</v>
-      </c>
-      <c r="I6" s="3">
-        <v>8000</v>
+      <c r="C8" s="3">
+        <v>1.41</v>
+      </c>
+      <c r="I8" s="3">
+        <v>2000</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
+      <c r="B9" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B9" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="C9" s="3">
-        <v>1.2</v>
-      </c>
       <c r="E9" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="I9" s="3">
-        <v>6000</v>
+        <v>24</v>
       </c>
       <c r="J9" s="3">
         <v>600</v>
       </c>
-      <c r="K9" s="3">
-        <v>600</v>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B10" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="3">
+        <v>1.2</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" s="3">
+        <v>1.08</v>
+      </c>
+      <c r="E12" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B12" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="G12" s="3" t="s">
+      <c r="I12" s="3">
+        <v>10000</v>
+      </c>
+      <c r="J12" s="3">
+        <v>500</v>
+      </c>
+      <c r="K12" s="3"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="J14" s="3">
+        <v>800</v>
+      </c>
+      <c r="L14" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="J12" s="3">
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B15" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="J15" s="3">
         <v>800</v>
       </c>
-      <c r="K12" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="L12" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B13" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="J13" s="3">
-        <v>800</v>
-      </c>
-      <c r="K13" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="L13" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="J16" s="3">
-        <v>600</v>
+      <c r="L15" s="3" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>37</v>
+      </c>
       <c r="B17" s="3" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>36</v>
+        <v>39</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>18</v>
       </c>
       <c r="J17" s="3">
-        <v>600</v>
+        <v>500</v>
+      </c>
+      <c r="K17" s="3">
+        <v>500</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B18" s="3" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C18" s="3">
-        <v>1.3</v>
+        <v>1.1399999999999999</v>
       </c>
       <c r="I18" s="3">
-        <v>4000</v>
-      </c>
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B19" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="J19" s="3">
+        <v>500</v>
+      </c>
+      <c r="K19" s="3"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E20" s="3" t="s">
+      <c r="K20" s="3"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="J21" s="3">
+        <v>500</v>
+      </c>
+      <c r="K21" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="H20" s="3" t="s">
+      <c r="L21" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="J20" s="3">
-        <v>600</v>
-      </c>
-      <c r="K20" s="3">
-        <v>600</v>
-      </c>
-      <c r="L20" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B21" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="E21" s="3" t="s">
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B22" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="J22" s="3">
+        <v>500</v>
+      </c>
+      <c r="K22" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="J21" s="3">
-        <v>600</v>
-      </c>
-      <c r="L21" s="3" t="s">
-        <v>40</v>
+      <c r="L22" s="3" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="E24" s="3">
-        <v>27.5</v>
-      </c>
-      <c r="H24" s="3">
-        <v>29</v>
-      </c>
-      <c r="J24" s="3">
-        <v>600</v>
+        <v>48</v>
       </c>
       <c r="K24" s="4" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="L24" s="3" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B25" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="E25" s="3">
-        <v>28.5</v>
-      </c>
-      <c r="H25" s="3">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="J25" s="3">
-        <v>600</v>
-      </c>
-      <c r="K25" s="4" t="s">
-        <v>28</v>
+        <v>500</v>
       </c>
       <c r="L25" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B26" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="E26" s="3">
-        <v>29.5</v>
-      </c>
-      <c r="H26" s="3">
-        <v>32</v>
-      </c>
-      <c r="J26" s="3">
-        <v>600</v>
-      </c>
-      <c r="K26" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="L26" s="3" t="s">
-        <v>49</v>
-      </c>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A28" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B28" s="6"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="7"/>
+      <c r="G28" s="7"/>
+      <c r="H28" s="7"/>
+      <c r="I28" s="7"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A29" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="C29" s="3">
-        <v>1.0900000000000001</v>
-      </c>
-      <c r="I29" s="3">
-        <v>10000</v>
-      </c>
+      <c r="A29" s="6"/>
+      <c r="B29" s="6"/>
+      <c r="C29" s="6"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="7"/>
+      <c r="G29" s="7"/>
+      <c r="H29" s="7"/>
+      <c r="I29" s="7"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B30" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="E30" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="G30" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="J30" s="3">
-        <v>600</v>
-      </c>
-      <c r="K30" s="4" t="s">
-        <v>28</v>
-      </c>
+      <c r="A30" s="6"/>
+      <c r="B30" s="6"/>
+      <c r="C30" s="6"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="7"/>
+      <c r="G30" s="7"/>
+      <c r="H30" s="7"/>
+      <c r="I30" s="7"/>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A31" s="6"/>
+      <c r="B31" s="6"/>
+      <c r="C31" s="6"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="7"/>
+      <c r="F31" s="7"/>
+      <c r="G31" s="7"/>
+      <c r="H31" s="7"/>
+      <c r="I31" s="7"/>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A32" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G32" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="J32" s="3">
-        <v>800</v>
-      </c>
-      <c r="K32" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="L32" s="3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B33" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G33" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="J33" s="3">
-        <v>800</v>
-      </c>
-      <c r="K33" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A36" s="5" t="s">
-        <v>61</v>
-      </c>
+      <c r="A32" s="6"/>
+      <c r="B32" s="6"/>
+      <c r="C32" s="6"/>
+      <c r="D32" s="6"/>
+      <c r="E32" s="7"/>
+      <c r="F32" s="7"/>
+      <c r="G32" s="7"/>
+      <c r="H32" s="7"/>
+      <c r="I32" s="7"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" s="6"/>
+      <c r="B33" s="6"/>
+      <c r="C33" s="6"/>
+      <c r="D33" s="6"/>
+      <c r="E33" s="7"/>
+      <c r="F33" s="7"/>
+      <c r="G33" s="7"/>
+      <c r="H33" s="7"/>
+      <c r="I33" s="7"/>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" s="6"/>
+      <c r="B34" s="6"/>
+      <c r="C34" s="6"/>
+      <c r="D34" s="6"/>
+      <c r="E34" s="7"/>
+      <c r="F34" s="7"/>
+      <c r="G34" s="7"/>
+      <c r="H34" s="7"/>
+      <c r="I34" s="7"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35" s="6"/>
+      <c r="B35" s="6"/>
+      <c r="C35" s="6"/>
+      <c r="D35" s="6"/>
+      <c r="E35" s="7"/>
+      <c r="F35" s="7"/>
+      <c r="G35" s="7"/>
+      <c r="H35" s="7"/>
+      <c r="I35" s="7"/>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36" s="6"/>
       <c r="B36" s="6"/>
       <c r="C36" s="6"/>
       <c r="D36" s="6"/>
@@ -1147,7 +1111,7 @@
       <c r="H36" s="7"/>
       <c r="I36" s="7"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="6"/>
       <c r="B37" s="6"/>
       <c r="C37" s="6"/>
@@ -1158,95 +1122,95 @@
       <c r="H37" s="7"/>
       <c r="I37" s="7"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A38" s="6"/>
-      <c r="B38" s="6"/>
-      <c r="C38" s="6"/>
-      <c r="D38" s="6"/>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38" s="7"/>
+      <c r="B38" s="7"/>
+      <c r="C38" s="7"/>
+      <c r="D38" s="7"/>
       <c r="E38" s="7"/>
       <c r="F38" s="7"/>
       <c r="G38" s="7"/>
       <c r="H38" s="7"/>
       <c r="I38" s="7"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A39" s="6"/>
-      <c r="B39" s="6"/>
-      <c r="C39" s="6"/>
-      <c r="D39" s="6"/>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39" s="7"/>
+      <c r="B39" s="7"/>
+      <c r="C39" s="7"/>
+      <c r="D39" s="7"/>
       <c r="E39" s="7"/>
       <c r="F39" s="7"/>
       <c r="G39" s="7"/>
       <c r="H39" s="7"/>
       <c r="I39" s="7"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A40" s="6"/>
-      <c r="B40" s="6"/>
-      <c r="C40" s="6"/>
-      <c r="D40" s="6"/>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40" s="7"/>
+      <c r="B40" s="7"/>
+      <c r="C40" s="7"/>
+      <c r="D40" s="7"/>
       <c r="E40" s="7"/>
       <c r="F40" s="7"/>
       <c r="G40" s="7"/>
       <c r="H40" s="7"/>
       <c r="I40" s="7"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A41" s="6"/>
-      <c r="B41" s="6"/>
-      <c r="C41" s="6"/>
-      <c r="D41" s="6"/>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A41" s="7"/>
+      <c r="B41" s="7"/>
+      <c r="C41" s="7"/>
+      <c r="D41" s="7"/>
       <c r="E41" s="7"/>
       <c r="F41" s="7"/>
       <c r="G41" s="7"/>
       <c r="H41" s="7"/>
       <c r="I41" s="7"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A42" s="6"/>
-      <c r="B42" s="6"/>
-      <c r="C42" s="6"/>
-      <c r="D42" s="6"/>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A42" s="7"/>
+      <c r="B42" s="7"/>
+      <c r="C42" s="7"/>
+      <c r="D42" s="7"/>
       <c r="E42" s="7"/>
       <c r="F42" s="7"/>
       <c r="G42" s="7"/>
       <c r="H42" s="7"/>
       <c r="I42" s="7"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A43" s="6"/>
-      <c r="B43" s="6"/>
-      <c r="C43" s="6"/>
-      <c r="D43" s="6"/>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A43" s="7"/>
+      <c r="B43" s="7"/>
+      <c r="C43" s="7"/>
+      <c r="D43" s="7"/>
       <c r="E43" s="7"/>
       <c r="F43" s="7"/>
       <c r="G43" s="7"/>
       <c r="H43" s="7"/>
       <c r="I43" s="7"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A44" s="6"/>
-      <c r="B44" s="6"/>
-      <c r="C44" s="6"/>
-      <c r="D44" s="6"/>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A44" s="7"/>
+      <c r="B44" s="7"/>
+      <c r="C44" s="7"/>
+      <c r="D44" s="7"/>
       <c r="E44" s="7"/>
       <c r="F44" s="7"/>
       <c r="G44" s="7"/>
       <c r="H44" s="7"/>
       <c r="I44" s="7"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A45" s="6"/>
-      <c r="B45" s="6"/>
-      <c r="C45" s="6"/>
-      <c r="D45" s="6"/>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A45" s="7"/>
+      <c r="B45" s="7"/>
+      <c r="C45" s="7"/>
+      <c r="D45" s="7"/>
       <c r="E45" s="7"/>
       <c r="F45" s="7"/>
       <c r="G45" s="7"/>
       <c r="H45" s="7"/>
       <c r="I45" s="7"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" s="7"/>
       <c r="B46" s="7"/>
       <c r="C46" s="7"/>
@@ -1257,7 +1221,7 @@
       <c r="H46" s="7"/>
       <c r="I46" s="7"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" s="7"/>
       <c r="B47" s="7"/>
       <c r="C47" s="7"/>
@@ -1268,7 +1232,7 @@
       <c r="H47" s="7"/>
       <c r="I47" s="7"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" s="7"/>
       <c r="B48" s="7"/>
       <c r="C48" s="7"/>
@@ -1378,97 +1342,9 @@
       <c r="H57" s="7"/>
       <c r="I57" s="7"/>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A58" s="7"/>
-      <c r="B58" s="7"/>
-      <c r="C58" s="7"/>
-      <c r="D58" s="7"/>
-      <c r="E58" s="7"/>
-      <c r="F58" s="7"/>
-      <c r="G58" s="7"/>
-      <c r="H58" s="7"/>
-      <c r="I58" s="7"/>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A59" s="7"/>
-      <c r="B59" s="7"/>
-      <c r="C59" s="7"/>
-      <c r="D59" s="7"/>
-      <c r="E59" s="7"/>
-      <c r="F59" s="7"/>
-      <c r="G59" s="7"/>
-      <c r="H59" s="7"/>
-      <c r="I59" s="7"/>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A60" s="7"/>
-      <c r="B60" s="7"/>
-      <c r="C60" s="7"/>
-      <c r="D60" s="7"/>
-      <c r="E60" s="7"/>
-      <c r="F60" s="7"/>
-      <c r="G60" s="7"/>
-      <c r="H60" s="7"/>
-      <c r="I60" s="7"/>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A61" s="7"/>
-      <c r="B61" s="7"/>
-      <c r="C61" s="7"/>
-      <c r="D61" s="7"/>
-      <c r="E61" s="7"/>
-      <c r="F61" s="7"/>
-      <c r="G61" s="7"/>
-      <c r="H61" s="7"/>
-      <c r="I61" s="7"/>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A62" s="7"/>
-      <c r="B62" s="7"/>
-      <c r="C62" s="7"/>
-      <c r="D62" s="7"/>
-      <c r="E62" s="7"/>
-      <c r="F62" s="7"/>
-      <c r="G62" s="7"/>
-      <c r="H62" s="7"/>
-      <c r="I62" s="7"/>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A63" s="7"/>
-      <c r="B63" s="7"/>
-      <c r="C63" s="7"/>
-      <c r="D63" s="7"/>
-      <c r="E63" s="7"/>
-      <c r="F63" s="7"/>
-      <c r="G63" s="7"/>
-      <c r="H63" s="7"/>
-      <c r="I63" s="7"/>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A64" s="7"/>
-      <c r="B64" s="7"/>
-      <c r="C64" s="7"/>
-      <c r="D64" s="7"/>
-      <c r="E64" s="7"/>
-      <c r="F64" s="7"/>
-      <c r="G64" s="7"/>
-      <c r="H64" s="7"/>
-      <c r="I64" s="7"/>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A65" s="7"/>
-      <c r="B65" s="7"/>
-      <c r="C65" s="7"/>
-      <c r="D65" s="7"/>
-      <c r="E65" s="7"/>
-      <c r="F65" s="7"/>
-      <c r="G65" s="7"/>
-      <c r="H65" s="7"/>
-      <c r="I65" s="7"/>
-    </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A36:I65"/>
+    <mergeCell ref="A28:I57"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/下单.xlsx
+++ b/下单.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28623"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18EEF5C7-BB98-4DFB-B4D9-5751B4038DDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4E61A91-2E7A-405D-BAEA-B4FBAAE1323B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -175,10 +175,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>hze</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>&gt;30.5</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -288,6 +284,10 @@
   </si>
   <si>
     <t>第三把小头</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>hze，ti</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -713,7 +713,7 @@
   <dimension ref="A1:L57"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L25" sqref="L25"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -777,13 +777,13 @@
         <v>13</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C3" s="3">
         <v>1.2</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I3" s="3">
         <v>8000</v>
@@ -792,15 +792,15 @@
         <v>500</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B4" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G4" s="3" t="s">
         <v>15</v>
@@ -839,10 +839,10 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B9" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E9" s="3" t="s">
         <v>23</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="J9" s="3">
         <v>600</v>
@@ -850,24 +850,27 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B10" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C10" s="3">
         <v>1.2</v>
       </c>
+      <c r="I10" s="3">
+        <v>8000</v>
+      </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" s="3" t="s">
         <v>30</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>31</v>
       </c>
       <c r="C12" s="3">
         <v>1.08</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I12" s="3">
         <v>10000</v>
@@ -879,44 +882,44 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B14" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="E14" s="3" t="s">
         <v>33</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>34</v>
       </c>
       <c r="J14" s="3">
         <v>800</v>
       </c>
       <c r="L14" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B15" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E15" s="3" t="s">
         <v>35</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>36</v>
       </c>
       <c r="J15" s="3">
         <v>800</v>
       </c>
       <c r="L15" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B17" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="E17" s="3" t="s">
         <v>38</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>39</v>
       </c>
       <c r="G17" s="3" t="s">
         <v>18</v>
@@ -930,7 +933,7 @@
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B18" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C18" s="3">
         <v>1.1399999999999999</v>
@@ -941,10 +944,10 @@
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B19" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G19" s="3" t="s">
         <v>41</v>
-      </c>
-      <c r="G19" s="3" t="s">
-        <v>42</v>
       </c>
       <c r="J19" s="3">
         <v>500</v>
@@ -959,55 +962,55 @@
         <v>17</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J21" s="3">
         <v>500</v>
       </c>
       <c r="K21" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="L21" s="3" t="s">
         <v>44</v>
-      </c>
-      <c r="L21" s="3" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B22" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J22" s="3">
         <v>500</v>
       </c>
       <c r="K22" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="L22" s="3" t="s">
         <v>44</v>
-      </c>
-      <c r="L22" s="3" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B24" s="3" t="s">
         <v>47</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>48</v>
       </c>
       <c r="K24" s="4" t="s">
         <v>14</v>
       </c>
       <c r="L24" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B25" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J25" s="3">
         <v>500</v>
       </c>
       <c r="L25" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">

--- a/下单.xlsx
+++ b/下单.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28623"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4E61A91-2E7A-405D-BAEA-B4FBAAE1323B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{442AA8A2-0C7E-400A-922B-2B8D0E098073}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="51">
   <si>
     <t>赛区</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -36,10 +36,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>胜负（ky）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>胜负（1m）</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -71,10 +67,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>备注</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>只针对第一二局</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -84,10 +76,6 @@
   </si>
   <si>
     <t>600</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>大表</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -288,6 +276,14 @@
   </si>
   <si>
     <t>hze，ti</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>独赢胜负（ky）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注人头时间</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -713,7 +709,7 @@
   <dimension ref="A1:L57"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -742,48 +738,48 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="2" t="s">
-        <v>5</v>
-      </c>
       <c r="L1" s="1" t="s">
-        <v>11</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C3" s="3">
         <v>1.2</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="I3" s="3">
         <v>8000</v>
@@ -792,35 +788,32 @@
         <v>500</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B4" s="3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="J4" s="3">
         <v>800</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="J7" s="3">
         <v>500</v>
@@ -828,7 +821,7 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B8" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C8" s="3">
         <v>1.41</v>
@@ -839,10 +832,10 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B9" s="3" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="J9" s="3">
         <v>600</v>
@@ -850,7 +843,7 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B10" s="3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C10" s="3">
         <v>1.2</v>
@@ -861,16 +854,16 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C12" s="3">
         <v>1.08</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="I12" s="3">
         <v>10000</v>
@@ -882,47 +875,47 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="J14" s="3">
         <v>800</v>
       </c>
       <c r="L14" s="3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B15" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="J15" s="3">
         <v>800</v>
       </c>
       <c r="L15" s="3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="J17" s="3">
         <v>500</v>
@@ -933,7 +926,7 @@
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B18" s="3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C18" s="3">
         <v>1.1399999999999999</v>
@@ -944,10 +937,10 @@
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B19" s="3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="J19" s="3">
         <v>500</v>
@@ -959,63 +952,63 @@
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="J21" s="3">
         <v>500</v>
       </c>
       <c r="K21" s="4" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="L21" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B22" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="J22" s="3">
         <v>500</v>
       </c>
       <c r="K22" s="4" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="L22" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="K24" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="L24" s="3" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B25" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="J25" s="3">
         <v>500</v>
       </c>
       <c r="L25" s="3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B28" s="6"/>
       <c r="C28" s="6"/>

--- a/下单.xlsx
+++ b/下单.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28623"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{442AA8A2-0C7E-400A-922B-2B8D0E098073}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0996F2AC-B99E-4C6A-B728-C95174AC572B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="48">
   <si>
     <t>赛区</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -67,27 +67,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>只针对第一二局</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ul</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>600</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>gll</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>prm</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>&gt;31</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -151,87 +131,39 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>gsm,goal</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>&gt;31,5</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>wlg,tp</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>&gt;30.5</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>act,tp</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>lodis,z10</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>只针对第二局</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>大头</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>fm,forsaken</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>nlc</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>los,dmg</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>lit</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>eko,zena</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>&gt;29.5</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>axolot,anc</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>&gt;28.5</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>al</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>fox,fog</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>&gt;34.5</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>geek,gng</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>baam,nig</t>
+    <t>500</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>nacl</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>独赢胜负（ky）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注人头时间</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TCL</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>eternal,bushid</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>besi,pa para</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -239,51 +171,107 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>ross,ewie</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>500</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>第一把大表，第二把大头</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Kaufman,au</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>nacl</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>con,dark</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>第一把大表</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>blue,ccg</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>第三把小头</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>hze，ti</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>独赢胜负（ky）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>备注人头时间</t>
+    <t>&lt;31.5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>bbl,ulf</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>NCL</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>bull,kaose</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>LIT</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>gmbl,eko</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>es</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>a one,aurora</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ebl</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>partiza,con</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;33.5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>只针对第一局</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>lupus，spick</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;35.5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>fog,geek</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>lfl</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>solaru,gw</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&gt;30</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;28.5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>galions,bds</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>job,kc</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;29.5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>lvp</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>barca,zeta</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ucam,guason</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;33</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -321,7 +309,7 @@
       <charset val="238"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -331,6 +319,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -346,7 +340,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -367,6 +361,9 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -706,10 +703,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L57"/>
+  <dimension ref="A1:L64"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -738,7 +735,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>49</v>
+        <v>16</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -765,328 +762,240 @@
         <v>4</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>50</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="B3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="3">
-        <v>1.2</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="I3" s="3">
-        <v>8000</v>
-      </c>
       <c r="J3" s="3">
-        <v>500</v>
-      </c>
-      <c r="L3" s="3" t="s">
-        <v>23</v>
+        <v>800</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B4" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="J4" s="3">
-        <v>800</v>
-      </c>
-      <c r="L4" s="3" t="s">
-        <v>10</v>
+        <v>20</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B5" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="J7" s="3">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B8" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" s="3">
-        <v>1.41</v>
-      </c>
-      <c r="I8" s="3">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B9" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="J9" s="3">
-        <v>600</v>
+        <v>25</v>
+      </c>
+      <c r="C7" s="3">
+        <v>1.3</v>
+      </c>
+      <c r="I7" s="8">
+        <v>4000</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>26</v>
+      </c>
       <c r="B10" s="3" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C10" s="3">
-        <v>1.2</v>
-      </c>
-      <c r="I10" s="3">
-        <v>8000</v>
+        <v>1.3</v>
+      </c>
+      <c r="I10" s="8">
+        <v>6000</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C12" s="3">
-        <v>1.08</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="I12" s="3">
+      <c r="K12" s="3"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" s="3">
+        <v>1.22</v>
+      </c>
+      <c r="I13" s="8">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16" s="3">
+        <v>1.05</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="I16" s="3">
         <v>10000</v>
       </c>
-      <c r="J12" s="3">
-        <v>500</v>
-      </c>
-      <c r="K12" s="3"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="J14" s="3">
+      <c r="J16" s="3">
         <v>800</v>
       </c>
-      <c r="L14" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B15" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="J15" s="3">
-        <v>800</v>
-      </c>
-      <c r="L15" s="3" t="s">
-        <v>23</v>
+      <c r="L16" s="3" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
-        <v>33</v>
-      </c>
       <c r="B17" s="3" t="s">
         <v>34</v>
       </c>
+      <c r="C17" s="3">
+        <v>1.23</v>
+      </c>
       <c r="E17" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="G17" s="3" t="s">
-        <v>15</v>
+      <c r="I17" s="8">
+        <v>4000</v>
       </c>
       <c r="J17" s="3">
-        <v>500</v>
-      </c>
-      <c r="K17" s="3">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B18" s="3" t="s">
+        <v>800</v>
+      </c>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K19" s="3"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B20" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C18" s="3">
-        <v>1.1399999999999999</v>
-      </c>
-      <c r="I18" s="3">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B19" s="3" t="s">
+      <c r="C20" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="I20" s="8">
+        <v>2500</v>
+      </c>
+      <c r="K20" s="3"/>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="G19" s="3" t="s">
+      <c r="B23" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="J19" s="3">
-        <v>500</v>
-      </c>
-      <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="K20" s="3"/>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B21" s="3" t="s">
+      <c r="E23" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G23" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="J21" s="3">
-        <v>500</v>
-      </c>
-      <c r="K21" s="4" t="s">
+      <c r="J23" s="3">
+        <v>600</v>
+      </c>
+      <c r="K23" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B24" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E24" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="L21" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B22" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="J22" s="3">
-        <v>500</v>
-      </c>
-      <c r="K22" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="L22" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A24" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="K24" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="L24" s="3" t="s">
-        <v>45</v>
+      <c r="J24" s="3">
+        <v>600</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B25" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="J25" s="3">
+        <v>600</v>
+      </c>
+      <c r="K25" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A28" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J28" s="3">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B29" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="J25" s="3">
-        <v>500</v>
-      </c>
-      <c r="L25" s="3" t="s">
+      <c r="E29" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G29" s="3" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A28" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B28" s="6"/>
-      <c r="C28" s="6"/>
-      <c r="D28" s="6"/>
-      <c r="E28" s="7"/>
-      <c r="F28" s="7"/>
-      <c r="G28" s="7"/>
-      <c r="H28" s="7"/>
-      <c r="I28" s="7"/>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A29" s="6"/>
-      <c r="B29" s="6"/>
-      <c r="C29" s="6"/>
-      <c r="D29" s="6"/>
-      <c r="E29" s="7"/>
-      <c r="F29" s="7"/>
-      <c r="G29" s="7"/>
-      <c r="H29" s="7"/>
-      <c r="I29" s="7"/>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A30" s="6"/>
-      <c r="B30" s="6"/>
-      <c r="C30" s="6"/>
-      <c r="D30" s="6"/>
-      <c r="E30" s="7"/>
-      <c r="F30" s="7"/>
-      <c r="G30" s="7"/>
-      <c r="H30" s="7"/>
-      <c r="I30" s="7"/>
+      <c r="J29" s="3">
+        <v>600</v>
+      </c>
+      <c r="K29" s="4" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A31" s="6"/>
-      <c r="B31" s="6"/>
-      <c r="C31" s="6"/>
-      <c r="D31" s="6"/>
-      <c r="E31" s="7"/>
-      <c r="F31" s="7"/>
-      <c r="G31" s="7"/>
-      <c r="H31" s="7"/>
-      <c r="I31" s="7"/>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A32" s="6"/>
-      <c r="B32" s="6"/>
-      <c r="C32" s="6"/>
-      <c r="D32" s="6"/>
-      <c r="E32" s="7"/>
-      <c r="F32" s="7"/>
-      <c r="G32" s="7"/>
-      <c r="H32" s="7"/>
-      <c r="I32" s="7"/>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="6"/>
-      <c r="B33" s="6"/>
-      <c r="C33" s="6"/>
-      <c r="D33" s="6"/>
-      <c r="E33" s="7"/>
-      <c r="F33" s="7"/>
-      <c r="G33" s="7"/>
-      <c r="H33" s="7"/>
-      <c r="I33" s="7"/>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34" s="6"/>
-      <c r="B34" s="6"/>
-      <c r="C34" s="6"/>
-      <c r="D34" s="6"/>
-      <c r="E34" s="7"/>
-      <c r="F34" s="7"/>
-      <c r="G34" s="7"/>
-      <c r="H34" s="7"/>
-      <c r="I34" s="7"/>
+      <c r="A31" s="3" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" s="6"/>
+      <c r="A35" s="5" t="s">
+        <v>11</v>
+      </c>
       <c r="B35" s="6"/>
       <c r="C35" s="6"/>
       <c r="D35" s="6"/>
@@ -1119,10 +1028,10 @@
       <c r="I37" s="7"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A38" s="7"/>
-      <c r="B38" s="7"/>
-      <c r="C38" s="7"/>
-      <c r="D38" s="7"/>
+      <c r="A38" s="6"/>
+      <c r="B38" s="6"/>
+      <c r="C38" s="6"/>
+      <c r="D38" s="6"/>
       <c r="E38" s="7"/>
       <c r="F38" s="7"/>
       <c r="G38" s="7"/>
@@ -1130,10 +1039,10 @@
       <c r="I38" s="7"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A39" s="7"/>
-      <c r="B39" s="7"/>
-      <c r="C39" s="7"/>
-      <c r="D39" s="7"/>
+      <c r="A39" s="6"/>
+      <c r="B39" s="6"/>
+      <c r="C39" s="6"/>
+      <c r="D39" s="6"/>
       <c r="E39" s="7"/>
       <c r="F39" s="7"/>
       <c r="G39" s="7"/>
@@ -1141,10 +1050,10 @@
       <c r="I39" s="7"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A40" s="7"/>
-      <c r="B40" s="7"/>
-      <c r="C40" s="7"/>
-      <c r="D40" s="7"/>
+      <c r="A40" s="6"/>
+      <c r="B40" s="6"/>
+      <c r="C40" s="6"/>
+      <c r="D40" s="6"/>
       <c r="E40" s="7"/>
       <c r="F40" s="7"/>
       <c r="G40" s="7"/>
@@ -1152,10 +1061,10 @@
       <c r="I40" s="7"/>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A41" s="7"/>
-      <c r="B41" s="7"/>
-      <c r="C41" s="7"/>
-      <c r="D41" s="7"/>
+      <c r="A41" s="6"/>
+      <c r="B41" s="6"/>
+      <c r="C41" s="6"/>
+      <c r="D41" s="6"/>
       <c r="E41" s="7"/>
       <c r="F41" s="7"/>
       <c r="G41" s="7"/>
@@ -1163,10 +1072,10 @@
       <c r="I41" s="7"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A42" s="7"/>
-      <c r="B42" s="7"/>
-      <c r="C42" s="7"/>
-      <c r="D42" s="7"/>
+      <c r="A42" s="6"/>
+      <c r="B42" s="6"/>
+      <c r="C42" s="6"/>
+      <c r="D42" s="6"/>
       <c r="E42" s="7"/>
       <c r="F42" s="7"/>
       <c r="G42" s="7"/>
@@ -1174,10 +1083,10 @@
       <c r="I42" s="7"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A43" s="7"/>
-      <c r="B43" s="7"/>
-      <c r="C43" s="7"/>
-      <c r="D43" s="7"/>
+      <c r="A43" s="6"/>
+      <c r="B43" s="6"/>
+      <c r="C43" s="6"/>
+      <c r="D43" s="6"/>
       <c r="E43" s="7"/>
       <c r="F43" s="7"/>
       <c r="G43" s="7"/>
@@ -1185,10 +1094,10 @@
       <c r="I43" s="7"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A44" s="7"/>
-      <c r="B44" s="7"/>
-      <c r="C44" s="7"/>
-      <c r="D44" s="7"/>
+      <c r="A44" s="6"/>
+      <c r="B44" s="6"/>
+      <c r="C44" s="6"/>
+      <c r="D44" s="6"/>
       <c r="E44" s="7"/>
       <c r="F44" s="7"/>
       <c r="G44" s="7"/>
@@ -1338,9 +1247,86 @@
       <c r="H57" s="7"/>
       <c r="I57" s="7"/>
     </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A58" s="7"/>
+      <c r="B58" s="7"/>
+      <c r="C58" s="7"/>
+      <c r="D58" s="7"/>
+      <c r="E58" s="7"/>
+      <c r="F58" s="7"/>
+      <c r="G58" s="7"/>
+      <c r="H58" s="7"/>
+      <c r="I58" s="7"/>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A59" s="7"/>
+      <c r="B59" s="7"/>
+      <c r="C59" s="7"/>
+      <c r="D59" s="7"/>
+      <c r="E59" s="7"/>
+      <c r="F59" s="7"/>
+      <c r="G59" s="7"/>
+      <c r="H59" s="7"/>
+      <c r="I59" s="7"/>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A60" s="7"/>
+      <c r="B60" s="7"/>
+      <c r="C60" s="7"/>
+      <c r="D60" s="7"/>
+      <c r="E60" s="7"/>
+      <c r="F60" s="7"/>
+      <c r="G60" s="7"/>
+      <c r="H60" s="7"/>
+      <c r="I60" s="7"/>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A61" s="7"/>
+      <c r="B61" s="7"/>
+      <c r="C61" s="7"/>
+      <c r="D61" s="7"/>
+      <c r="E61" s="7"/>
+      <c r="F61" s="7"/>
+      <c r="G61" s="7"/>
+      <c r="H61" s="7"/>
+      <c r="I61" s="7"/>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A62" s="7"/>
+      <c r="B62" s="7"/>
+      <c r="C62" s="7"/>
+      <c r="D62" s="7"/>
+      <c r="E62" s="7"/>
+      <c r="F62" s="7"/>
+      <c r="G62" s="7"/>
+      <c r="H62" s="7"/>
+      <c r="I62" s="7"/>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A63" s="7"/>
+      <c r="B63" s="7"/>
+      <c r="C63" s="7"/>
+      <c r="D63" s="7"/>
+      <c r="E63" s="7"/>
+      <c r="F63" s="7"/>
+      <c r="G63" s="7"/>
+      <c r="H63" s="7"/>
+      <c r="I63" s="7"/>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A64" s="7"/>
+      <c r="B64" s="7"/>
+      <c r="C64" s="7"/>
+      <c r="D64" s="7"/>
+      <c r="E64" s="7"/>
+      <c r="F64" s="7"/>
+      <c r="G64" s="7"/>
+      <c r="H64" s="7"/>
+      <c r="I64" s="7"/>
+    </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A28:I57"/>
+    <mergeCell ref="A35:I64"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/下单.xlsx
+++ b/下单.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28623"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0996F2AC-B99E-4C6A-B728-C95174AC572B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A335770-B5AB-4D88-83E1-ABABF608AFD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="45">
   <si>
     <t>赛区</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -64,10 +64,6 @@
   </si>
   <si>
     <t>时间（ky)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>600</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -139,14 +135,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>500</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>nacl</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>独赢胜负（ky）</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -159,119 +147,119 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>eternal,bushid</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>besi,pa para</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>&gt;32</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;31.5</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>bbl,ulf</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>NCL</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>bull,kaose</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>LIT</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>gmbl,eko</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>es</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>a one,aurora</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ebl</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>partiza,con</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;33.5</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>只针对第一局</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>lupus，spick</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;35.5</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>fog,geek</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>lfl</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>solaru,gw</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>&gt;30</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;28.5</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>galions,bds</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>job,kc</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;29.5</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>lvp</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>barca,zeta</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ucam,guason</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>&lt;33</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>bbl,boot</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;30.5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>misa,bush</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&gt;29.5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>besi,ulf</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&gt;31</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>eternal.papara</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ljl</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>burning,spring</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>dfm,clock</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>reject,qt</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>大头</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>lplol</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>nice,gtz</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>anb,fog</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&gt;29</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>genk,baam</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>lit</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>colos,axo</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>galions,job</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;34</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>solary,gm</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;25.5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>prm</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>eintracht,uol</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>只针对第二把</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>dd,eintra</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -309,7 +297,7 @@
       <charset val="238"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -319,12 +307,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -340,30 +322,27 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -703,10 +682,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L64"/>
+  <dimension ref="A1:L57"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+      <selection activeCell="K32" sqref="K32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -735,7 +714,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -762,240 +741,288 @@
         <v>4</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="E3" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="3" t="s">
-        <v>22</v>
-      </c>
       <c r="J3" s="3">
-        <v>800</v>
+        <v>600</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B4" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="E4" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="K4" s="4" t="s">
-        <v>14</v>
+      <c r="J4" s="3">
+        <v>600</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B5" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="J5" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
+      <c r="K5" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B6" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="G6" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="K6" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="3">
-        <v>1.3</v>
-      </c>
-      <c r="I7" s="8">
-        <v>4000</v>
+      <c r="B8" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="3">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="I8" s="3">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B9" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="3">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="I9" s="3">
+        <v>6000</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
-        <v>26</v>
-      </c>
       <c r="B10" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C10" s="3">
-        <v>1.3</v>
-      </c>
-      <c r="I10" s="8">
+        <v>28</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="J10" s="3">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" s="3">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="I12" s="3">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="K15" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B16" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16" s="3">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="I16" s="3">
         <v>6000</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="K12" s="3"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C13" s="3">
-        <v>1.22</v>
-      </c>
-      <c r="I13" s="8">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C16" s="3">
-        <v>1.05</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="I16" s="3">
-        <v>10000</v>
-      </c>
-      <c r="J16" s="3">
-        <v>800</v>
-      </c>
-      <c r="L16" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B17" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C17" s="3">
-        <v>1.23</v>
-      </c>
-      <c r="E17" s="3" t="s">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="I17" s="8">
-        <v>4000</v>
-      </c>
-      <c r="J17" s="3">
-        <v>800</v>
-      </c>
-      <c r="K17" s="3"/>
-      <c r="L17" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="K19" s="3"/>
+      <c r="B18" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J18" s="3">
+        <v>600</v>
+      </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C20" s="3">
-        <v>1.5</v>
-      </c>
-      <c r="I20" s="8">
-        <v>2500</v>
-      </c>
-      <c r="K20" s="3"/>
+        <v>37</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="J20" s="3">
+        <v>500</v>
+      </c>
+      <c r="K20" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B21" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="K21" s="3">
+        <v>600</v>
+      </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="J23" s="3">
+        <v>17</v>
+      </c>
+      <c r="K23" s="3">
         <v>600</v>
       </c>
-      <c r="K23" s="4" t="s">
-        <v>10</v>
+      <c r="L23" s="3" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B24" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="J24" s="3">
+        <v>44</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="K24" s="3">
         <v>600</v>
       </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B25" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="E25" s="3" t="s">
+      <c r="L24" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="G25" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="J25" s="3">
-        <v>600</v>
-      </c>
-      <c r="K25" s="4" t="s">
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A28" s="5" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A28" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="J28" s="3">
-        <v>800</v>
-      </c>
+      <c r="B28" s="6"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="7"/>
+      <c r="G28" s="7"/>
+      <c r="H28" s="7"/>
+      <c r="I28" s="7"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B29" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="J29" s="3">
-        <v>600</v>
-      </c>
-      <c r="K29" s="4" t="s">
-        <v>10</v>
-      </c>
+      <c r="A29" s="6"/>
+      <c r="B29" s="6"/>
+      <c r="C29" s="6"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="7"/>
+      <c r="G29" s="7"/>
+      <c r="H29" s="7"/>
+      <c r="I29" s="7"/>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A30" s="6"/>
+      <c r="B30" s="6"/>
+      <c r="C30" s="6"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="7"/>
+      <c r="G30" s="7"/>
+      <c r="H30" s="7"/>
+      <c r="I30" s="7"/>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A31" s="3" t="s">
-        <v>15</v>
-      </c>
+      <c r="A31" s="6"/>
+      <c r="B31" s="6"/>
+      <c r="C31" s="6"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="7"/>
+      <c r="F31" s="7"/>
+      <c r="G31" s="7"/>
+      <c r="H31" s="7"/>
+      <c r="I31" s="7"/>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A32" s="6"/>
+      <c r="B32" s="6"/>
+      <c r="C32" s="6"/>
+      <c r="D32" s="6"/>
+      <c r="E32" s="7"/>
+      <c r="F32" s="7"/>
+      <c r="G32" s="7"/>
+      <c r="H32" s="7"/>
+      <c r="I32" s="7"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" s="6"/>
+      <c r="B33" s="6"/>
+      <c r="C33" s="6"/>
+      <c r="D33" s="6"/>
+      <c r="E33" s="7"/>
+      <c r="F33" s="7"/>
+      <c r="G33" s="7"/>
+      <c r="H33" s="7"/>
+      <c r="I33" s="7"/>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" s="6"/>
+      <c r="B34" s="6"/>
+      <c r="C34" s="6"/>
+      <c r="D34" s="6"/>
+      <c r="E34" s="7"/>
+      <c r="F34" s="7"/>
+      <c r="G34" s="7"/>
+      <c r="H34" s="7"/>
+      <c r="I34" s="7"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" s="5" t="s">
-        <v>11</v>
-      </c>
+      <c r="A35" s="6"/>
       <c r="B35" s="6"/>
       <c r="C35" s="6"/>
       <c r="D35" s="6"/>
@@ -1028,10 +1055,10 @@
       <c r="I37" s="7"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A38" s="6"/>
-      <c r="B38" s="6"/>
-      <c r="C38" s="6"/>
-      <c r="D38" s="6"/>
+      <c r="A38" s="7"/>
+      <c r="B38" s="7"/>
+      <c r="C38" s="7"/>
+      <c r="D38" s="7"/>
       <c r="E38" s="7"/>
       <c r="F38" s="7"/>
       <c r="G38" s="7"/>
@@ -1039,10 +1066,10 @@
       <c r="I38" s="7"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A39" s="6"/>
-      <c r="B39" s="6"/>
-      <c r="C39" s="6"/>
-      <c r="D39" s="6"/>
+      <c r="A39" s="7"/>
+      <c r="B39" s="7"/>
+      <c r="C39" s="7"/>
+      <c r="D39" s="7"/>
       <c r="E39" s="7"/>
       <c r="F39" s="7"/>
       <c r="G39" s="7"/>
@@ -1050,10 +1077,10 @@
       <c r="I39" s="7"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A40" s="6"/>
-      <c r="B40" s="6"/>
-      <c r="C40" s="6"/>
-      <c r="D40" s="6"/>
+      <c r="A40" s="7"/>
+      <c r="B40" s="7"/>
+      <c r="C40" s="7"/>
+      <c r="D40" s="7"/>
       <c r="E40" s="7"/>
       <c r="F40" s="7"/>
       <c r="G40" s="7"/>
@@ -1061,10 +1088,10 @@
       <c r="I40" s="7"/>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A41" s="6"/>
-      <c r="B41" s="6"/>
-      <c r="C41" s="6"/>
-      <c r="D41" s="6"/>
+      <c r="A41" s="7"/>
+      <c r="B41" s="7"/>
+      <c r="C41" s="7"/>
+      <c r="D41" s="7"/>
       <c r="E41" s="7"/>
       <c r="F41" s="7"/>
       <c r="G41" s="7"/>
@@ -1072,10 +1099,10 @@
       <c r="I41" s="7"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A42" s="6"/>
-      <c r="B42" s="6"/>
-      <c r="C42" s="6"/>
-      <c r="D42" s="6"/>
+      <c r="A42" s="7"/>
+      <c r="B42" s="7"/>
+      <c r="C42" s="7"/>
+      <c r="D42" s="7"/>
       <c r="E42" s="7"/>
       <c r="F42" s="7"/>
       <c r="G42" s="7"/>
@@ -1083,10 +1110,10 @@
       <c r="I42" s="7"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A43" s="6"/>
-      <c r="B43" s="6"/>
-      <c r="C43" s="6"/>
-      <c r="D43" s="6"/>
+      <c r="A43" s="7"/>
+      <c r="B43" s="7"/>
+      <c r="C43" s="7"/>
+      <c r="D43" s="7"/>
       <c r="E43" s="7"/>
       <c r="F43" s="7"/>
       <c r="G43" s="7"/>
@@ -1094,10 +1121,10 @@
       <c r="I43" s="7"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A44" s="6"/>
-      <c r="B44" s="6"/>
-      <c r="C44" s="6"/>
-      <c r="D44" s="6"/>
+      <c r="A44" s="7"/>
+      <c r="B44" s="7"/>
+      <c r="C44" s="7"/>
+      <c r="D44" s="7"/>
       <c r="E44" s="7"/>
       <c r="F44" s="7"/>
       <c r="G44" s="7"/>
@@ -1247,86 +1274,9 @@
       <c r="H57" s="7"/>
       <c r="I57" s="7"/>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A58" s="7"/>
-      <c r="B58" s="7"/>
-      <c r="C58" s="7"/>
-      <c r="D58" s="7"/>
-      <c r="E58" s="7"/>
-      <c r="F58" s="7"/>
-      <c r="G58" s="7"/>
-      <c r="H58" s="7"/>
-      <c r="I58" s="7"/>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A59" s="7"/>
-      <c r="B59" s="7"/>
-      <c r="C59" s="7"/>
-      <c r="D59" s="7"/>
-      <c r="E59" s="7"/>
-      <c r="F59" s="7"/>
-      <c r="G59" s="7"/>
-      <c r="H59" s="7"/>
-      <c r="I59" s="7"/>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A60" s="7"/>
-      <c r="B60" s="7"/>
-      <c r="C60" s="7"/>
-      <c r="D60" s="7"/>
-      <c r="E60" s="7"/>
-      <c r="F60" s="7"/>
-      <c r="G60" s="7"/>
-      <c r="H60" s="7"/>
-      <c r="I60" s="7"/>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A61" s="7"/>
-      <c r="B61" s="7"/>
-      <c r="C61" s="7"/>
-      <c r="D61" s="7"/>
-      <c r="E61" s="7"/>
-      <c r="F61" s="7"/>
-      <c r="G61" s="7"/>
-      <c r="H61" s="7"/>
-      <c r="I61" s="7"/>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A62" s="7"/>
-      <c r="B62" s="7"/>
-      <c r="C62" s="7"/>
-      <c r="D62" s="7"/>
-      <c r="E62" s="7"/>
-      <c r="F62" s="7"/>
-      <c r="G62" s="7"/>
-      <c r="H62" s="7"/>
-      <c r="I62" s="7"/>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A63" s="7"/>
-      <c r="B63" s="7"/>
-      <c r="C63" s="7"/>
-      <c r="D63" s="7"/>
-      <c r="E63" s="7"/>
-      <c r="F63" s="7"/>
-      <c r="G63" s="7"/>
-      <c r="H63" s="7"/>
-      <c r="I63" s="7"/>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A64" s="7"/>
-      <c r="B64" s="7"/>
-      <c r="C64" s="7"/>
-      <c r="D64" s="7"/>
-      <c r="E64" s="7"/>
-      <c r="F64" s="7"/>
-      <c r="G64" s="7"/>
-      <c r="H64" s="7"/>
-      <c r="I64" s="7"/>
-    </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A35:I64"/>
+    <mergeCell ref="A28:I57"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/下单.xlsx
+++ b/下单.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28623"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A335770-B5AB-4D88-83E1-ABABF608AFD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A924CF31-1DFA-4489-B68E-395F85AB1C32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="53">
   <si>
     <t>赛区</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -64,6 +64,10 @@
   </si>
   <si>
     <t>时间（ky)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>600</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -147,6 +151,10 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>&gt;32</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>lfl</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -260,6 +268,30 @@
   </si>
   <si>
     <t>dd,eintra</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>NACL</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CCG,WINTER</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>只针对第一把</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>near,apex</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>800</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>只针对第一二把，高楼有就i对冲</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -685,7 +717,7 @@
   <dimension ref="A1:L57"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K32" sqref="K32"/>
+      <selection activeCell="L27" sqref="L27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -714,7 +746,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -741,18 +773,18 @@
         <v>4</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J3" s="3">
         <v>600</v>
@@ -760,10 +792,10 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B4" s="3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="J4" s="3">
         <v>600</v>
@@ -771,10 +803,10 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B5" s="3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="K5" s="3">
         <v>600</v>
@@ -782,10 +814,10 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B6" s="3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="K6" s="3">
         <v>600</v>
@@ -793,10 +825,10 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C8" s="3">
         <v>1.1299999999999999</v>
@@ -807,7 +839,7 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B9" s="3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C9" s="3">
         <v>1.1299999999999999</v>
@@ -818,10 +850,10 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B10" s="3" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="J10" s="3">
         <v>800</v>
@@ -829,10 +861,10 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C12" s="3">
         <v>1.1000000000000001</v>
@@ -843,13 +875,13 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="K15" s="3">
         <v>600</v>
@@ -857,7 +889,7 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B16" s="3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C16" s="3">
         <v>1.1399999999999999</v>
@@ -868,13 +900,13 @@
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J18" s="3">
         <v>600</v>
@@ -882,16 +914,16 @@
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E20" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G20" s="3" t="s">
         <v>40</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>38</v>
       </c>
       <c r="J20" s="3">
         <v>500</v>
@@ -902,10 +934,10 @@
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B21" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="K21" s="3">
         <v>600</v>
@@ -913,38 +945,75 @@
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="K23" s="3">
         <v>600</v>
       </c>
       <c r="L23" s="3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B24" s="3" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="K24" s="3">
         <v>600</v>
       </c>
       <c r="L24" s="3" t="s">
-        <v>43</v>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="K26" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="L26" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B27" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C27" s="3">
+        <v>10</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I27" s="3">
+        <v>300</v>
+      </c>
+      <c r="K27" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="L27" s="3" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B28" s="6"/>
       <c r="C28" s="6"/>

--- a/下单.xlsx
+++ b/下单.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28623"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A924CF31-1DFA-4489-B68E-395F85AB1C32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82E32B17-076D-417A-BFE0-2E6A1679C24C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
